--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="222">
   <si>
     <t>url</t>
   </si>
@@ -77,6 +77,603 @@
   </si>
   <si>
     <t>https://www.pkobp.pl/</t>
+  </si>
+  <si>
+    <t>https://allegrolokalne.pl-12943.cfd/oferta/Nintendo%20Switch%20OLED%2064GB%20White%20z%20grami%20i%20etui%20w%20zestawie?id=472596582</t>
+  </si>
+  <si>
+    <t>https://quinn12340.wixsite.com/my-bt-1</t>
+  </si>
+  <si>
+    <t>https://weeltm.onepage.me/</t>
+  </si>
+  <si>
+    <t>https://mail-support.mos.ap-southeast-2.sufybkt.com/Password_expiry%20notice_countdown.htmla@b.com</t>
+  </si>
+  <si>
+    <t>https://metanaskio.xyz/Trade/tradelist</t>
+  </si>
+  <si>
+    <t>https://www.spedizionemastercard.com/BNL</t>
+  </si>
+  <si>
+    <t>http://www.spedizionemastercard.com/BNL/</t>
+  </si>
+  <si>
+    <t>https://www.spedizionemastercard.com/BNL/</t>
+  </si>
+  <si>
+    <t>https://co-op-pank.com/175EuR/</t>
+  </si>
+  <si>
+    <t>https://www.antiriciclaggio-verifica.com/BancaMPS</t>
+  </si>
+  <si>
+    <t>https://antiriciclaggio-verifica.com/BancaMPS</t>
+  </si>
+  <si>
+    <t>https://www.antiriciclaggio-verifica.com/BancaMPS/</t>
+  </si>
+  <si>
+    <t>https://hololom25.com/js/vins/load1.php</t>
+  </si>
+  <si>
+    <t>http://allegrolokalnie.pl-oferta5095356.shop</t>
+  </si>
+  <si>
+    <t>https://h1d66x.blogspot.com/</t>
+  </si>
+  <si>
+    <t>https://h1d66x.blogspot.fr/</t>
+  </si>
+  <si>
+    <t>https://h0s1pa.blogspot.jp/</t>
+  </si>
+  <si>
+    <t>https://h0s1pa.blogspot.com/</t>
+  </si>
+  <si>
+    <t>https://aru90115.page.link/RtQw</t>
+  </si>
+  <si>
+    <t>https://gateway.btfs.io/btfs/QmRcfaSP222Ado8ivtT4sFz3AwDKgk1drD14bygDTCTepya@b.com</t>
+  </si>
+  <si>
+    <t>https://is.gd/widibainfo</t>
+  </si>
+  <si>
+    <t>http://is.gd/widibainfo</t>
+  </si>
+  <si>
+    <t>https://lat.abatek.com/</t>
+  </si>
+  <si>
+    <t>https://gls-group.cc/RShHD7</t>
+  </si>
+  <si>
+    <t>https://www.rcmotions.nl/RTYQSJDUQ7SD6Q678DQ/</t>
+  </si>
+  <si>
+    <t>https://www.rcmotions.nl/RTYQSJDUQ7SD6Q678DQ</t>
+  </si>
+  <si>
+    <t>https://www-qubatics.netlify.app/</t>
+  </si>
+  <si>
+    <t>https://random.cavmaine.co.uk/bWFpbEBwZWMuZWNvbnNpdGFsaWEuaXQ=/=&amp;amp;rtxuububorncu_id=455&amp;amp;wvklit_name=vquxpngbinternal&amp;amp;fvhdcjnuknmttfu_id=65284401-aotszlvgjt-cybzsybug/zrwsjiy422</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/e1a76awh</t>
+  </si>
+  <si>
+    <t>https://securesync-v.net/rc/l.php?username=redacted@abuse.ionos.com&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vRa6Cy-GTvw1DAvbfIcMj7bFAQ4dn7GDrWcX2NpgDWmO9bxVgDmkaH9OXe03cJj0ifx-5_r4zvmmquU/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>http://allegro.pl-oferta2379113.shop</t>
+  </si>
+  <si>
+    <t>https://attserver123.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://attserverss0.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://mnbvcxcvjytf.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://khr.lfp.mybluehost.me/intesasanpaolo/web/login.php</t>
+  </si>
+  <si>
+    <t>http://allegrolokalnie.oferta-9062558.sbs</t>
+  </si>
+  <si>
+    <t>https://hifguidffui.wixsite.com/my-site-1</t>
+  </si>
+  <si>
+    <t>https://currentlyatt74267.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://fiblockfi-login.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://safety-profiles-fb-ads-3692201609.vercel.app/</t>
+  </si>
+  <si>
+    <t>https://seoulmexico.com/TCORM/</t>
+  </si>
+  <si>
+    <t>https://jpctscg.com/-jp</t>
+  </si>
+  <si>
+    <t>https://poisauifgaama.com/amazon/</t>
+  </si>
+  <si>
+    <t>https://poisauifgaama.com/amazon</t>
+  </si>
+  <si>
+    <t>https://www3-vpass.yxyypfk.com/?accountupdate=zytuVOZzNVBJK2EaRoVOyiXX</t>
+  </si>
+  <si>
+    <t>https://greenhome365.com/vjagrjp/</t>
+  </si>
+  <si>
+    <t>https://greenhome365.com/vjagrjp</t>
+  </si>
+  <si>
+    <t>http://allegrolokalnie.pl-kategorie-inne-192.icu</t>
+  </si>
+  <si>
+    <t>https://ahgwyq.com/rukatenlogin/</t>
+  </si>
+  <si>
+    <t>https://ahgwyq.com/rukatenlogin</t>
+  </si>
+  <si>
+    <t>https://serve-aupayca.shop/au/uqmobile/</t>
+  </si>
+  <si>
+    <t>https://serve-aupayca.shop/au/uqmobile</t>
+  </si>
+  <si>
+    <t>https://myaupaykddi-fs.shop/au/uqmobile/</t>
+  </si>
+  <si>
+    <t>https://myaupaykddi-fs.shop/au/uqmobile</t>
+  </si>
+  <si>
+    <t>https://wallet-auone.com/%F0%9D%90%A5%F0%9D%90%A8%F0%9D%90%A0%F0%9D%90%A2%F0%9D%90%A7/%F0%9D%90%A3%F0%9D%90%A9.%F0%9D%90%A1%F0%9D%90%AD%F0%9D%90%A6%F0%9D%90%A5/</t>
+  </si>
+  <si>
+    <t>https://wallet-auone.com/%F0%9D%90%A5%F0%9D%90%A8%F0%9D%90%A0%F0%9D%90%A2%F0%9D%90%A7/%F0%9D%90%A3%F0%9D%90%A9.%F0%9D%90%A1%F0%9D%90%AD%F0%9D%90%A6%F0%9D%90%A5</t>
+  </si>
+  <si>
+    <t>https://hgnlsdcdyvsht.xyz/anaalogin/</t>
+  </si>
+  <si>
+    <t>https://hgnlsdcdyvsht.xyz/anaalogin</t>
+  </si>
+  <si>
+    <t>https://gkcottrydyagy.xyz/anaalogin/</t>
+  </si>
+  <si>
+    <t>https://gkcottrydyagy.xyz/anaalogin</t>
+  </si>
+  <si>
+    <t>https://cessound.com/password/webmail/logon/index.phpaaaa@example.jp</t>
+  </si>
+  <si>
+    <t>https://nqti.asia/youauejjapenmta/</t>
+  </si>
+  <si>
+    <t>https://nqti.asia/youauejjapenmta</t>
+  </si>
+  <si>
+    <t>https://dtovuzgyhqhnj.xyz/jcblogin/</t>
+  </si>
+  <si>
+    <t>https://dtovuzgyhqhnj.xyz/jcblogin</t>
+  </si>
+  <si>
+    <t>https://orderlistandcompanyprofile65.info/orderlistandcompanyprofile65/SKM_C-41131-000023_1459-3/IK-Portal.shtml?</t>
+  </si>
+  <si>
+    <t>https://hdwtkd.cn/uogk/</t>
+  </si>
+  <si>
+    <t>https://hdwtkd.cn/uogk</t>
+  </si>
+  <si>
+    <t>https://peraldohugo.com</t>
+  </si>
+  <si>
+    <t>http://allegrolokalnie.pll-oferta-firmowa405261.icu</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vS26PnqmScq5kD0rRdkh6IHQzn5lVlbVBCCTrBF5crN49R7Bj36VGOVDVSpFWAVxV4u4rELkg1jdjeN/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>https://inmioficina.com</t>
+  </si>
+  <si>
+    <t>https://quicknet.from-ny.net/index.php?user=0v0@0v0.com.br</t>
+  </si>
+  <si>
+    <t>https://jhyzzyhzs.com</t>
+  </si>
+  <si>
+    <t>https://duanliren.com</t>
+  </si>
+  <si>
+    <t>https://undiluteddoom.com</t>
+  </si>
+  <si>
+    <t>https://thehealthyiq.com</t>
+  </si>
+  <si>
+    <t>https://lketamaskloginn.webflow.io</t>
+  </si>
+  <si>
+    <t>http://allegro.pl-oferta5095356.shop</t>
+  </si>
+  <si>
+    <t>http://allegrolokalnie.oferta-7771738.icu</t>
+  </si>
+  <si>
+    <t>http://laicaic.icu/kuletitian/</t>
+  </si>
+  <si>
+    <t>https://uii1wl--xosf-menat--hew--8c5-workers-dev.translate.goog/amsu11/?_x_tr_sch=http&amp;amp;_x_tr_sl=auto&amp;amp;_x_tr_tl=ja&amp;amp;_x_tr_hl=ja</t>
+  </si>
+  <si>
+    <t>https://laicaic.icu/kuletitian/</t>
+  </si>
+  <si>
+    <t>https://bgeg--jyvdr-g--gsfdqf3m-workers-dev.translate.goog/letieub/?_x_tr_sch=http&amp;amp;_x_tr_sl=auto&amp;amp;_x_tr_tl=ja&amp;amp;_x_tr_hl=ja</t>
+  </si>
+  <si>
+    <t>https://mhwpn.cn/ANAdsajhgJHGDAS7834HJjhg/</t>
+  </si>
+  <si>
+    <t>https://iixam.cn/?idtoken=efopz/</t>
+  </si>
+  <si>
+    <t>https://ugknb.cn/?idtoken=u7y/</t>
+  </si>
+  <si>
+    <t>https://started-trzor.github.io/</t>
+  </si>
+  <si>
+    <t>http://started-trzor.github.io</t>
+  </si>
+  <si>
+    <t>https://nhmrv.cn/?ntmmrhkpsvuwjkjo</t>
+  </si>
+  <si>
+    <t>https://acfwz.cn/?idtoken=dfiwfk6qo/</t>
+  </si>
+  <si>
+    <t>https://aauth-supprt--crpto--authhs.webflow.io</t>
+  </si>
+  <si>
+    <t>https://coinbaseexcahngeed.webflow.io</t>
+  </si>
+  <si>
+    <t>https://walletrezerhrdd.webflow.io</t>
+  </si>
+  <si>
+    <t>https://starte---ledger---auuths.webflow.io</t>
+  </si>
+  <si>
+    <t>https://auth-crypto-s-sso-cdnb.webflow.io</t>
+  </si>
+  <si>
+    <t>https://auth--app--crypto---sso--cdn.webflow.io</t>
+  </si>
+  <si>
+    <t>http://trezoreriostiuart.webflow.io</t>
+  </si>
+  <si>
+    <t>https://trezoreriostiuart.webflow.io/</t>
+  </si>
+  <si>
+    <t>https://nwkff.cn/visaJKHJKEWhjkewh342jkl/</t>
+  </si>
+  <si>
+    <t>https://lhdxte.cn/?btzbttsefds</t>
+  </si>
+  <si>
+    <t>https://lmlor.cn/anjsajapentjakcmatcae/</t>
+  </si>
+  <si>
+    <t>https://acflw.cn/?idtoken=c4zg/</t>
+  </si>
+  <si>
+    <t>http://trezoriostarsted.webflow.io</t>
+  </si>
+  <si>
+    <t>https://trezoriostarsted.webflow.io/</t>
+  </si>
+  <si>
+    <t>https://coinbasedeexcagnbed.webflow.io</t>
+  </si>
+  <si>
+    <t>https://new.express.adobe.com/webpage/uv5pIZN6wt9HM</t>
+  </si>
+  <si>
+    <t>https://paulajohnstone99.wixsite.com/my-site-1</t>
+  </si>
+  <si>
+    <t>http://allegrolokalnie.pl-59821.icu</t>
+  </si>
+  <si>
+    <t>http://allegrolokalne.pl43853.cfd</t>
+  </si>
+  <si>
+    <t>http://allegrolokalne.pl53030.cfd</t>
+  </si>
+  <si>
+    <t>https://www.adscheckfb.online/page-check-ads-1018937219382</t>
+  </si>
+  <si>
+    <t>https://www.explorer-web3.com/import.html</t>
+  </si>
+  <si>
+    <t>https://optusnetemail9gjknbv.weebly.com</t>
+  </si>
+  <si>
+    <t>https://metamasekextensiona.webflow.io</t>
+  </si>
+  <si>
+    <t>https://optusnetser.weebly.com</t>
+  </si>
+  <si>
+    <t>https://28493297-1396133.renderforestsites.com/</t>
+  </si>
+  <si>
+    <t>http://allegrolokalne.pl32533.cfd</t>
+  </si>
+  <si>
+    <t>http://allegrolokalne.pl72943.cfd</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vRC8vrGLEZ9f9k9SiP-kwS_9m5-67Gq-k4dbdNCB828HNq_oiyNll4lZGcse2oPdTyuQPtitAWMSoYX/pub?start=false&amp;amp;loop=true&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>https://metamaskextansiona.webflow.io</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/sadsadsaddsa-3c8bf.firebasestorage.app/o/c%2Fvmo%20(1).html?alt=media&amp;token=0a7fb032-bb1a-40ee-8c8f-664356cbc7d5</t>
+  </si>
+  <si>
+    <t>https://t.co/bSR4Oxx7fO</t>
+  </si>
+  <si>
+    <t>https://metamasskilogina.webflow.io</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/75982c</t>
+  </si>
+  <si>
+    <t>https://aruba.befitmorelia.com/aruba/a1b2c3/207b380709ccdd330363a2e2ccf39f10/index/</t>
+  </si>
+  <si>
+    <t>https://dossier-fraude.com/index.php</t>
+  </si>
+  <si>
+    <t>https://aruba.befitmorelia.com/aruba/a1b2c3/207b380709ccdd330363a2e2ccf39f10/?</t>
+  </si>
+  <si>
+    <t>https://aruba.befitmorelia.com/aruba/next.php</t>
+  </si>
+  <si>
+    <t>https://dossier-fraude.com</t>
+  </si>
+  <si>
+    <t>https://aruba.befitmorelia.com/aruba/requestIndex.php</t>
+  </si>
+  <si>
+    <t>https://metamaskyextensiond.webflow.io</t>
+  </si>
+  <si>
+    <t>https://mitmmaskilogan.webflow.io</t>
+  </si>
+  <si>
+    <t>https://ACTIVISIONCP.SKIN</t>
+  </si>
+  <si>
+    <t>https://AGIFTFROMACTIVISION.COM</t>
+  </si>
+  <si>
+    <t>https://ACTIVISIONDROP.COM</t>
+  </si>
+  <si>
+    <t>https://metasmkwalltte.webflow.io</t>
+  </si>
+  <si>
+    <t>https://camp100.000webhostapps.com/redisnt</t>
+  </si>
+  <si>
+    <t>https://allegrolokalnie.pl-745667434.icu/dostawa/pilarka-stihl-ms-362-cm---jak-nowa-970323</t>
+  </si>
+  <si>
+    <t>http://reactivarahora.tiiny.io</t>
+  </si>
+  <si>
+    <t>https://reactivarahora.tiiny.io/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vReMOY4sn7Gwxwojc-wZXHP_4ZqBHyr1zpCCFj_-z60kKEMk6bGT5FKERgUAT4JLAbeOLriEeUv5Vvf/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000&amp;amp;slide=id.p</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vReMOY4sn7Gwxwojc-wZXHP_4ZqBHyr1zpCCFj_-z60kKEMk6bGT5FKERgUAT4JLAbeOLriEeUv5Vvf/pub?start=false&amp;loop=false&amp;delayms=3000&amp;slide=id.p</t>
+  </si>
+  <si>
+    <t>https://trezorwalletcrc.webflow.io/</t>
+  </si>
+  <si>
+    <t>http://trezorwalletcrc.webflow.io</t>
+  </si>
+  <si>
+    <t>https://stemcommunuity.com/gift/activation/id=35772332</t>
+  </si>
+  <si>
+    <t>http://trezorxwalletc.webflow.io</t>
+  </si>
+  <si>
+    <t>https://trezorxwalletc.webflow.io/</t>
+  </si>
+  <si>
+    <t>https://caixadirectaonline-cgd.com/</t>
+  </si>
+  <si>
+    <t>https://trezzorrwwalleat.webflow.io/</t>
+  </si>
+  <si>
+    <t>http://trezzorrwwalleat.webflow.io</t>
+  </si>
+  <si>
+    <t>http://walletrezerhrdd.webflow.io</t>
+  </si>
+  <si>
+    <t>https://walletrezerhrdd.webflow.io/</t>
+  </si>
+  <si>
+    <t>https://biovac.digital/info/file.html</t>
+  </si>
+  <si>
+    <t>https://o365.zqkhnexbcbxnbrwprfmjbnskdappur.duckdns.org/</t>
+  </si>
+  <si>
+    <t>https://lkjjiiieysudxsddf.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vRrqhTn3bYNHqdxQf0x3RfpebGEO5t1AWoDi343U6vSmpPgHS-J19lf0nd88JqsTcxwG6DB-izlItLv/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>https://axwngiyrf4jt.objectstorage.ca-montreal-1.oci.customer-oci.com/n/axwngiyrf4jt/b/redirect/o/m.html</t>
+  </si>
+  <si>
+    <t>http://bafybeihxfz3aevnzfemmgljt463frgstzbjdu2r5tmba5t2qcpuc7bwl6a.ipfs.dweb.link</t>
+  </si>
+  <si>
+    <t>https://bafybeihxfz3aevnzfemmgljt463frgstzbjdu2r5tmba5t2qcpuc7bwl6a.ipfs.dweb.link/</t>
+  </si>
+  <si>
+    <t>https://3hg.blob.core.windows.net/99c3kr7fvfzef9o65jz2/F0Lwv3ou4gN1MA7Noc0g.html</t>
+  </si>
+  <si>
+    <t>https://ssa-personal-statement.de/Irs/</t>
+  </si>
+  <si>
+    <t>http://allegrolokaihie.59045641.xyz/1bnprqlj/sVmfeM/7</t>
+  </si>
+  <si>
+    <t>http://allegrollokalniie.95647654.xyz/1bnprqlj/sVmfeM/7</t>
+  </si>
+  <si>
+    <t>https://www.skincemonkey.com</t>
+  </si>
+  <si>
+    <t>https://www.cs2buff163.com</t>
+  </si>
+  <si>
+    <t>https://skirnbid.net/</t>
+  </si>
+  <si>
+    <t>https://allegrolokalnie.8714-84129.rest/dostawa/odkurzacz-pioracy-karcher-puzzi-10-1--189643</t>
+  </si>
+  <si>
+    <t>https://coinbasewalltextnsion.webflow.io</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vT64K7MeKMRvXa41BpeWjgOr4zn_XIHk8X465XVSXtsvO9-v4w6dSiwcr4WZrjmFBpuP7Miua4Hrtx4/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vRqsqDNqfYdYVOfH-J4wPx5ldTK9NFC7SWiqDBczdjpzOjiiNT_C3-0OLSi-9UzuXfRpSA8sWEjlPoR/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>https://skincemonkey.com/?gad_source=1&amp;amp;gclid=Cj0KCQjw4cS-BhDGARIsABg4_J1IlYXn7ePzKUFHLROHnazQ6QzL2r1ZpTqUSmgqJ33k76ZzTenlk_gaAma-EALw_wcB</t>
+  </si>
+  <si>
+    <t>https://is.gd/AggiornaHYPESELLA</t>
+  </si>
+  <si>
+    <t>https://hv.cfiuxg3.sa.com/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vS9rLQBqo1QdtSnAUsJfF_mLu26aaTYuEwoR6_WQVKxqZIBFiJunVRFbcHL7TLbyb-dfgyyjYSLzcNn/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>http://ezdrivema.com-bgiw.xin</t>
+  </si>
+  <si>
+    <t>http://0llx.1658758.xyz/</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/29b03c?rb.routing.mode=proxy&amp;amp;rb.routing.signature=348858</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/29b03c</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/ty0aamx</t>
+  </si>
+  <si>
+    <t>http://rebrand.ly/6b4ccd</t>
+  </si>
+  <si>
+    <t>http://rebrand.ly/0b9b5a</t>
+  </si>
+  <si>
+    <t>http://ezdrivema.com-aspi.xin</t>
+  </si>
+  <si>
+    <t>https://www.grwebsites.com/free/temitopelawal068/btnewupdate</t>
+  </si>
+  <si>
+    <t>https://account-about-it.help/index.php</t>
+  </si>
+  <si>
+    <t>https://account-about-it.help/how/calcul.php</t>
+  </si>
+  <si>
+    <t>https://allegrolokalnie.8124-4912-9124.rest/aukcja/nowy-opony-letnie-hankook-ventus-prime-3-205-55r16---4-szt--600607</t>
+  </si>
+  <si>
+    <t>https://home-107714.weeblysite.com/</t>
+  </si>
+  <si>
+    <t>https://mintcream-lion-763040.hostingersite.com/wp-includes/ID3/tu4.htmldummy@bbc.com</t>
+  </si>
+  <si>
+    <t>https://suivi-colis-en-ligne.com/</t>
+  </si>
+  <si>
+    <t>https://suivi-colis-en-ligne.com/pac/calcul.php</t>
+  </si>
+  <si>
+    <t>https://calm-sevcure-7af2.solar-3e2.workers.dev/px/Qmb1G4HBY32M8nxDSRr94iGbbmsH6Gi66nnTXBs32J1nGt?em=dummy@bbc.com</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vR8LAkQKh7j87bU6DNWmtzGHqBCHYaVQ5c1JVyNiOvKN_YYThTE94dBJ5onVaUQK94ci6hxaDGpAUx0/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>https://attserver4.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://srv479834.weebly.com/</t>
+  </si>
+  <si>
+    <t>http://ezdrivema.com-asdo.xin</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vS9o8KNTCKmSd1wqUA_rkwKvJJbrJ3ehzs2xfR6sS0hPhqyqBXvJnMb4avGoy4kDpEY71zr1VsiiVlh/pub?start=false&amp;amp;loop=false&amp;amp;delayms=3000</t>
+  </si>
+  <si>
+    <t>https://walletconnectbg.webflow.io</t>
   </si>
   <si>
     <t>phishing</t>
@@ -453,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -480,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -488,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -496,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -504,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -512,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -520,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -528,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -536,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -544,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -552,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -560,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -568,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -576,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -584,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -592,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -600,7 +1197,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -608,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -616,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -624,7 +1221,1599 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -649,6 +2838,205 @@
     <hyperlink ref="A19" r:id="rId18"/>
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
+    <hyperlink ref="A152" r:id="rId151"/>
+    <hyperlink ref="A153" r:id="rId152"/>
+    <hyperlink ref="A154" r:id="rId153"/>
+    <hyperlink ref="A155" r:id="rId154"/>
+    <hyperlink ref="A156" r:id="rId155"/>
+    <hyperlink ref="A157" r:id="rId156"/>
+    <hyperlink ref="A158" r:id="rId157"/>
+    <hyperlink ref="A159" r:id="rId158"/>
+    <hyperlink ref="A160" r:id="rId159"/>
+    <hyperlink ref="A161" r:id="rId160"/>
+    <hyperlink ref="A162" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
+    <hyperlink ref="A164" r:id="rId163"/>
+    <hyperlink ref="A165" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="A167" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="A169" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="A171" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="A173" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="A175" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="A177" r:id="rId176"/>
+    <hyperlink ref="A178" r:id="rId177"/>
+    <hyperlink ref="A179" r:id="rId178"/>
+    <hyperlink ref="A180" r:id="rId179"/>
+    <hyperlink ref="A181" r:id="rId180"/>
+    <hyperlink ref="A182" r:id="rId181"/>
+    <hyperlink ref="A183" r:id="rId182"/>
+    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A185" r:id="rId184"/>
+    <hyperlink ref="A186" r:id="rId185"/>
+    <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
+    <hyperlink ref="A193" r:id="rId192"/>
+    <hyperlink ref="A194" r:id="rId193"/>
+    <hyperlink ref="A195" r:id="rId194"/>
+    <hyperlink ref="A196" r:id="rId195"/>
+    <hyperlink ref="A197" r:id="rId196"/>
+    <hyperlink ref="A198" r:id="rId197"/>
+    <hyperlink ref="A199" r:id="rId198"/>
+    <hyperlink ref="A200" r:id="rId199"/>
+    <hyperlink ref="A201" r:id="rId200"/>
+    <hyperlink ref="A202" r:id="rId201"/>
+    <hyperlink ref="A203" r:id="rId202"/>
+    <hyperlink ref="A204" r:id="rId203"/>
+    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A206" r:id="rId205"/>
+    <hyperlink ref="A207" r:id="rId206"/>
+    <hyperlink ref="A208" r:id="rId207"/>
+    <hyperlink ref="A209" r:id="rId208"/>
+    <hyperlink ref="A210" r:id="rId209"/>
+    <hyperlink ref="A211" r:id="rId210"/>
+    <hyperlink ref="A212" r:id="rId211"/>
+    <hyperlink ref="A213" r:id="rId212"/>
+    <hyperlink ref="A214" r:id="rId213"/>
+    <hyperlink ref="A215" r:id="rId214"/>
+    <hyperlink ref="A216" r:id="rId215"/>
+    <hyperlink ref="A217" r:id="rId216"/>
+    <hyperlink ref="A218" r:id="rId217"/>
+    <hyperlink ref="A219" r:id="rId218"/>
+    <hyperlink ref="A220" r:id="rId219"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
